--- a/biology/Botanique/Juglans_sigillata/Juglans_sigillata.xlsx
+++ b/biology/Botanique/Juglans_sigillata/Juglans_sigillata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juglans sigillata, parfois appelée « noyer de fer » ou « noix herbacée », est une espèce d'arbre originaire de Chine.
 </t>
@@ -511,45 +523,119 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbre de taille moyenne (environ 25 mètres), étroitement apparenté au noyer commun J. regia.
-Appareil foliaire
-Ses feuilles mesurent en moyenne entre 15 et 50 cm et leur pétiole entre 7 et 12,5 cm. Ce sont des arbres glabrescents, rachis glabrescent, foliole terminale présente.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Juglans_sigillata</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juglans_sigillata</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil foliaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses feuilles mesurent en moyenne entre 15 et 50 cm et leur pétiole entre 7 et 12,5 cm. Ce sont des arbres glabrescents, rachis glabrescent, foliole terminale présente.
 Les folioles sont au nombre de 9 ou 11 (–15), ovales ou elliptiques-lancéolées, longues de 6 à 18 cm et larges de 3 à 8 cm. Elles sont glabrescentes. Les marges sont entières ou obscurément dentelées. Ses feuilles possèdent un apex acuminé. Les pétiolules latéraux sont absents ou mesurent jusqu'à 1 millimètre. La taille du pétiolule terminal est de 2 à 3 cm.
-Appareil reproducteur
-Les épis mâles mesurent de 13,5 à 18 cm de long. Les fleurs possèdent de 24 à 27 étamines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Juglans_sigillata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juglans_sigillata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les épis mâles mesurent de 13,5 à 18 cm de long. Les fleurs possèdent de 24 à 27 étamines.
 Les épis de fructification présentent un à trois fruits glabrescents, 3,4–6 cm × 3–5 cm, globuleux à sous-globuleux, irrégulièrement déhiscents ; une valve forme une arête longitudinale proéminente autour de ces noix, dont la surface est par ailleurs irrégulièrement piquée ; la coquille forme des crêtes profondes à l'intérieur, la graine tordue et contournée remplissant les espaces entre les deux.
 Fleurs mars-avril, fruits septembre (Chine) (Lu et al. 1999 ; Grimshaw &amp; Bayton 2009).
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Juglans_sigillata</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Juglans_sigillata</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Géographiquement, il est réparti entre le Bhoutan, la Chine dans les provinces de Guizhou, Sichuan, SE Xizang et Yunnan et l'Inde dans les états de Arunachal, Pradesh et Sikkim.
 Cet arbre est présent entre 1300 et 3300 mètres d'altitude dans les forêts des vallées et les pentes de montagnes.
@@ -559,99 +645,105 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Juglans_sigillata</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Juglans_sigillata</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le noyer de fer est, du moins aux yeux de l'Occident, un arbre distinctif, bien que son statut taxonomique soit plutôt incertain. Il est clairement très proche du noyer persan familier, reconnaissable au nombre de folioles (de 9 à 15 contre 5 à 9 chez J. regia) et à la coque de la noix (extrêmement dure - d'où le nom commun - et couverte avec de nombreuses piqûres profondes, tandis que chez J. regia la coquille est ridée et non piquée). Les pointes particulièrement acuminées et, parfois, plus qu'un soupçon de dents sur les folioles sont également distinctives.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Juglans_sigillata</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Juglans_sigillata</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Autres informations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une espèce cultivée dans le Yunnan pour ses fruits à coque[1] ; qu'il s'agisse ou non d'une souche vraiment indigène ou d'une ancienne souche cultivée de J. regia est un point discutable. Zhang et coll. (2019), dans une étude phylogénomique extrêmement approfondie, ont démontré que regia (qu'ils considèrent comme sigillata) est dérivée d'un ancien hybride (environ 3,5 MYA) entre une espèce de noix noire et un membre de la lignée J. mandshurica. Ils considèrent que J. sigillata est mieux considéré comme un écotype de J. regia maintenu en tant que race locale dans le sud-ouest de la Chine. Wang et coll. (2015), tout en les traitant comme des espèces distinctes, ont trouvé des preuves d'hybridation introgressive brouillant la frontière entre les deux. 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une espèce cultivée dans le Yunnan pour ses fruits à coque ; qu'il s'agisse ou non d'une souche vraiment indigène ou d'une ancienne souche cultivée de J. regia est un point discutable. Zhang et coll. (2019), dans une étude phylogénomique extrêmement approfondie, ont démontré que regia (qu'ils considèrent comme sigillata) est dérivée d'un ancien hybride (environ 3,5 MYA) entre une espèce de noix noire et un membre de la lignée J. mandshurica. Ils considèrent que J. sigillata est mieux considéré comme un écotype de J. regia maintenu en tant que race locale dans le sud-ouest de la Chine. Wang et coll. (2015), tout en les traitant comme des espèces distinctes, ont trouvé des preuves d'hybridation introgressive brouillant la frontière entre les deux. 
 Le noyer de fer a atteint la culture occidentale remarquablement tard. 
 La plupart des spécimens européens semblent provenir d'un sac de 5 kg de fruits à coque importés au Royaume-Uni de la China National Tree Seed Corporation par John Grimshaw et Michiel Zwaan en 2005 (Grimshaw &amp; Bayton 2009), qui ont noté de nombreuses variations de taille et de piqûres, ainsi que les coquilles extrêmement dures. Ceux-ci ont été distribués aux dendrologues à travers l'Europe, avec une bonne germination. La croissance initiale a été rapide, mais les semis ont eu tendance à produire des spécimens d'arbustes bas au début (J. Grimshaw, K. Rushforth, comm. Pers., 2019). 
 Le terme « noix herbacée » est parfois utilisé pour parler de cette espèce. De plus en plus, les individus rompent avec cette habitude pour fabriquer des arbres standards et poussent bien par la suite. Keith Rushforth (comm. Pers. 2019) estime que les conditions de croissance optimales en une seule saison, plutôt que simplement la durée établie, le permettent.
-L'espèce a également été collectée à cette époque dans l'Arunachal Pradesh, en Inde, par Keith Rushforth ; il se développe en Europe et en Nouvelle-Zélande à partir de cette introduction. Un spécimen mesuré à 12 m × 21 m en 2019 (The Tree Register 2019) pousse dans l'arboretum du Kent de Maurice Foster. Un arbre - en train de fructifier - à Tregrehan, Cornwall (11 m × 17 m, 2014 - The Tree Register 2019) provient d'une collection antérieure de Tom Hudson, du Yunnan en 1996[2].
+L'espèce a également été collectée à cette époque dans l'Arunachal Pradesh, en Inde, par Keith Rushforth ; il se développe en Europe et en Nouvelle-Zélande à partir de cette introduction. Un spécimen mesuré à 12 m × 21 m en 2019 (The Tree Register 2019) pousse dans l'arboretum du Kent de Maurice Foster. Un arbre - en train de fructifier - à Tregrehan, Cornwall (11 m × 17 m, 2014 - The Tree Register 2019) provient d'une collection antérieure de Tom Hudson, du Yunnan en 1996.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Juglans_sigillata</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Juglans_sigillata</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Pharmacopée</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude[3] a évalué l'activité antitumorale des extraits d'enveloppes vertes de Juglans sigillata Dode sur le cancer de l'œsophage. Les cellules ont été traitées avec différentes concentrations de six composants des extraits de cosses vertes de J. sigillata. L'acide gallique était le principal constituant actif unique des extraits. En conclusion, les enveloppes vertes de J. sigillata peuvent agir comme un inhibiteur potentiel de la croissance du cancer de l'œsophage. 
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude a évalué l'activité antitumorale des extraits d'enveloppes vertes de Juglans sigillata Dode sur le cancer de l'œsophage. Les cellules ont été traitées avec différentes concentrations de six composants des extraits de cosses vertes de J. sigillata. L'acide gallique était le principal constituant actif unique des extraits. En conclusion, les enveloppes vertes de J. sigillata peuvent agir comme un inhibiteur potentiel de la croissance du cancer de l'œsophage. 
 </t>
         </is>
       </c>
